--- a/WorkflowInfo.xlsx
+++ b/WorkflowInfo.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indiana-my.sharepoint.com/personal/rkakde_iu_edu/Documents/Github_vsCode/Natural-Language-Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{6591F8DE-2E80-9744-BC8C-C6977E714D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F475F660-04BC-3740-A069-CC916CCE6E44}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{6591F8DE-2E80-9744-BC8C-C6977E714D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{025A8208-1D5A-8E41-BFA2-C63F97E5B45B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{4840E121-34D7-2B4B-A7D1-DF0E3BFE4A64}"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="33720" windowHeight="19380" xr2:uid="{4840E121-34D7-2B4B-A7D1-DF0E3BFE4A64}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Workflow" sheetId="2" r:id="rId2"/>
+    <sheet name="Workflow" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1685,25 +1684,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB6DBB2-CE22-A541-9756-E173DE6C1540}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0737FF-C3B4-4C48-BF60-64DF2ADCD3DC}">
   <dimension ref="C18:F49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/WorkflowInfo.xlsx
+++ b/WorkflowInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indiana-my.sharepoint.com/personal/rkakde_iu_edu/Documents/Github_vsCode/Natural-Language-Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{6591F8DE-2E80-9744-BC8C-C6977E714D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{025A8208-1D5A-8E41-BFA2-C63F97E5B45B}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{6591F8DE-2E80-9744-BC8C-C6977E714D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D03EA50-A706-6449-8522-890F5A7AA814}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="500" windowWidth="33720" windowHeight="19380" xr2:uid="{4840E121-34D7-2B4B-A7D1-DF0E3BFE4A64}"/>
   </bookViews>
@@ -625,15 +625,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>590389</xdr:colOff>
+      <xdr:colOff>244631</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>67032</xdr:rowOff>
+      <xdr:rowOff>66493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>790809</xdr:colOff>
+      <xdr:colOff>166231</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>199139</xdr:rowOff>
+      <xdr:rowOff>19949</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -648,8 +648,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590389" y="1089490"/>
-          <a:ext cx="1900928" cy="950073"/>
+          <a:off x="244631" y="1097121"/>
+          <a:ext cx="1623799" cy="777959"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -678,10 +678,6 @@
             <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Source</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
@@ -708,16 +704,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>291758</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>15442</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>471286</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>535230</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>147550</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>714758</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -732,27 +728,25 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3649724" y="424425"/>
-          <a:ext cx="1900930" cy="950074"/>
+          <a:off x="2997988" y="687012"/>
+          <a:ext cx="1892477" cy="762516"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -768,10 +762,6 @@
             <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
             <a:t> Station 1</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
@@ -803,16 +793,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>279651</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142022</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>459178</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>73141</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523123</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>69136</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>702650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>55837</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -827,70 +817,82 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3637617" y="1982446"/>
-          <a:ext cx="1900930" cy="949571"/>
+          <a:off x="2985880" y="1516021"/>
+          <a:ext cx="1892477" cy="807198"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1"/>
-            <a:t>Work</a:t>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Work Station 2</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t> Station 2</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Exponential(8)</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>1 entity processed</a:t>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1 entity processed at a time</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> at a time</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -898,16 +900,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>785280</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>718788</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>107567</xdr:rowOff>
+      <xdr:rowOff>167409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>206214</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>35183</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>272617</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6649</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -922,8 +924,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6609992" y="1138195"/>
-          <a:ext cx="1894442" cy="958245"/>
+          <a:off x="5718997" y="1198037"/>
+          <a:ext cx="1202835" cy="457617"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -965,15 +967,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>790809</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>81496</xdr:rowOff>
+      <xdr:colOff>166231</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>37642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>291758</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>471286</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>133086</xdr:rowOff>
+      <xdr:rowOff>43221</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -991,8 +993,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2491317" y="899462"/>
-          <a:ext cx="1158407" cy="665065"/>
+          <a:off x="1868430" y="1068270"/>
+          <a:ext cx="1129558" cy="417831"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1021,15 +1023,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>790809</xdr:colOff>
+      <xdr:colOff>166231</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>133086</xdr:rowOff>
+      <xdr:rowOff>43221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>279651</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>3334</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>459178</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>64489</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1047,8 +1049,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2491317" y="1564527"/>
-          <a:ext cx="1146300" cy="892705"/>
+          <a:off x="1868430" y="1486101"/>
+          <a:ext cx="1117450" cy="433519"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1076,16 +1078,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523123</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>173621</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>702650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>785280</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>3334</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>718788</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>64489</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1103,8 +1105,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5538547" y="1605062"/>
-          <a:ext cx="1090886" cy="852170"/>
+          <a:off x="4878357" y="1426846"/>
+          <a:ext cx="840640" cy="492774"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1132,16 +1134,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>535230</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>81496</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>714758</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>37642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>785280</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>173621</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>718788</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190092</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1159,8 +1161,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5550654" y="899462"/>
-          <a:ext cx="1078779" cy="705600"/>
+          <a:off x="4890465" y="1068270"/>
+          <a:ext cx="828532" cy="358576"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1365,7 +1367,213 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>46397</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226074</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>132984</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rounded Rectangle 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{061FD9BA-2EF1-A949-A0CA-874CADEE1A66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3397601" y="2227487"/>
+          <a:ext cx="1004180" cy="585131"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dynamic</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ON: q&gt;=x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OFF:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> q&lt;=y</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>492042</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>618376</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>126335</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="TextBox 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BDB844-C41F-A87F-851A-A2EF35669BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2194241" y="784607"/>
+          <a:ext cx="950837" cy="166231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </a:rPr>
+            <a:t>Queue length</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" baseline="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </a:rPr>
+            <a:t> (q)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1688,7 +1896,7 @@
   <dimension ref="C18:F49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
